--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/23_Çankırı_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/23_Çankırı_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D08595C1-BC0C-4C33-82D0-57BB32C67B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76FB00CE-E34F-4FA5-A89F-3F6AAC1E1D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{4EDB9FEF-90C0-444A-8738-3009CE4ED63A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{2042D1F5-C915-4F98-BEDA-30C71111C6B7}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,13 +952,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{F30660C9-8775-4163-8206-270016DEBC93}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BF5402CB-C3FA-470B-952A-F1776258794C}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{955343A7-4816-438B-B6D1-B34D268F89C7}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{81850893-DF74-4148-A869-5F21F860AC39}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{AE26FB5B-F874-46DC-97FF-504E2C8FEA24}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{4E5F31DF-4DA8-47D3-A4B4-A603932372FE}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{03F4FF76-1E16-4DCE-98BF-BF3B8D9C25F1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{EE9BF19B-2688-4260-9854-2E03EB474BC3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{98CB2B74-7621-4D7F-8CD7-81C195958232}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{AB74C32A-47D2-4B9D-8E7F-6886C88D2C66}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{EDF32738-C943-4671-BD9D-9EE1FE8772B5}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{508399CE-F9A5-48F7-927D-5A27C1039262}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{DADE005C-6583-496A-B22D-37296FDD0C7A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AC64EA3A-147E-426F-9F41-1BD2912BC613}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1328,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8F0196-55C2-42A5-92A8-780C516CC5BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6D0F60-4349-45E8-AC31-1198DBA22C12}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2550,18 +2550,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A556B204-75F5-4198-A0D4-4FC75971E142}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B6B09ADE-6A66-49C0-8283-576413A120B5}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EC224809-CB01-4134-B358-90E8912579EC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E66C6BC6-2F57-4EC7-A437-B6F1F9BE28B7}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{035D7A14-0D06-4406-BB0C-B5334897D69A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4D128274-ABD8-41AC-8396-0C4CCD2787EF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EB9C2A1-3063-4421-AE40-D0226DDCB166}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8ACCFD02-5397-4257-9B4F-CC41AC9617D3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D03E9E35-FA8A-424F-8E62-B3A864F3DC13}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD7459F8-8B81-4F13-98CB-D0D7F08306C2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FBDA8A83-90EE-40BA-BB26-733A1F7271CF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6788FBAF-4E50-4B4D-B140-7E66E21BD792}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AE704CF7-02A4-43DC-B71B-C9B63C43D0D6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F7651229-D2E5-454B-AF6F-5C812A43F830}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{61A22211-1FC8-4C48-BBE1-749BFC00CDC4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57C07D8E-C3A9-49C9-9CC8-9385F125B482}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6CD8CD4D-45C7-4102-98EB-94203B2A4033}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5DF97844-81DE-437E-8E5E-083DB034FED7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CDEC9227-3C13-439D-8F2C-4D1B92A9B61F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{87736672-2602-4E51-94C2-4B8F7F624151}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C095DF6-1C18-4611-AF3A-A66EB3486BA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BF445EEE-0152-485C-B198-2F461257D74E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{25D0A381-76E6-4A7C-BCCB-2502CCBEAFDA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2893B78B-A314-4C6D-94C2-6FEF33A45858}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2574,7 +2574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D546D1C-38B5-48F4-A1D6-355435ABBB2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E392A385-E5E3-4DC0-B916-872817708F9F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3777,18 +3777,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5375B5F-676D-4495-B19F-172181813311}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E30C1FF9-EEF6-4092-994F-F5E5575F3D1A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E47FDF10-5C2C-426A-B79A-7CBE83A92298}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6A750DD8-017A-4F29-A5AE-70B1A94478EA}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9454E5D2-37F8-4F72-83F3-B0E2AF1151DC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1C3DB41-9DE5-4625-A7CC-F061A5A439AF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B04734BF-4BC9-4A60-A151-84F0F7F56057}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C6EF1107-67A7-499A-8134-96AC6738CDCE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6AABFE4B-076F-4188-93E3-5DB87120616E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B3D12CD-4000-431D-B846-F96D045AB62D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E667D58-9DF5-4271-9BFF-0B33E43CF0D6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C0E618A-9A26-4FC1-9FC6-7F1C694F4590}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C3112B74-8316-4FCB-AE69-7EF8EFD08801}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4CCB530-CFA0-4527-B78A-BC17E4ECCC88}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{613919CC-C440-4E3F-A405-57303671D643}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DF7A0CF9-897E-4DD1-ADC1-663D43B77686}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{F441021B-5D03-4BA7-B231-24377FF1D946}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DB85DA33-70D3-4ED7-AD63-4807C254B534}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8A31316A-200C-4AF2-889E-3381043F9073}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3EEE841D-1D5D-42FA-A0CC-D651DE7FB25F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9DF5D5F0-9F72-4A70-B026-D7B406303458}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8AA77489-3AA4-437A-B9EE-63F419D0DAD1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A37E3486-2599-41FB-B91E-D6017B79F059}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{89A6926A-B6C7-41B5-ACB0-944C4539AFE2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3801,7 +3801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DBFBD41-9E66-4CA2-AC9E-A038C84C66CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00319E4-7A2D-4B4C-B664-860B21005BC9}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -4996,18 +4996,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6267008F-07A6-40BE-828E-8A3B8F02E182}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1A8D2F9-21AE-446F-9988-F5FF2F08941C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{42FD564B-FE06-425A-8329-0F95196A45FA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8EBF5DA6-A0D3-4EC6-9609-3CF46514FAB8}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{7C17476C-09CE-47E3-903F-451EE688FA96}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8697BC27-F8DE-45CA-BB09-4BC05521A7CC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C3D4652-3D8E-4A7F-9241-5EA86D1AF577}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3776C480-1FBA-42EB-9A03-B9AF3CD34795}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBDDDCBE-3D5E-41F6-AD07-6582DBD92D0D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3221B958-76C0-4AC5-AA4A-E7261D068F5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6B5CC891-8309-41F7-AE13-0C45F62BA1BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ADCB7A35-F166-4C59-AFE6-92E365870934}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0333A9C5-0A94-4280-88A4-7B726518F19B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3365BE12-B9D4-45D5-BC7C-C525A7D89FDD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{346E7EBB-0716-46B3-B2B5-E59283DA0E36}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4686E59E-B0CC-4EC7-8E8A-5F7CB7501396}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{24CC399C-F7D6-4D4A-B560-53818408B1F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{052E4A35-F063-415B-8A50-BC5CAA6AADEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1230C0A2-88F7-43E4-AAF0-6762D3583BB1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E89B1D20-16B6-4BEB-A54C-9C0313801805}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC050803-2E3F-4E3D-BFDE-C400365FAF8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EA5FAA1F-B9CF-46EF-BB2B-43E298395D2C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF67E75E-8C6C-44B0-B238-9177916AA921}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D93AE77A-0F7F-4922-895B-7FD5F6946D01}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5020,7 +5020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD504AE-5BDD-4A15-87A9-893CA6235390}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6918E8-7278-4DC6-AAD6-AB5A6CD656AB}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6210,18 +6210,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2B81A812-945E-4AA9-8905-8E9A55C096E7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0639EF37-4FE7-45CA-8C17-23C8DEEACB7A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AEC78999-51C9-4141-A44F-44B3C735664D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{60E9D7F7-6E79-4713-84B1-A2A202823A67}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{9D093AB7-CCA5-4690-9004-8FDF87352523}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{30176046-7D39-4DE8-9A4D-0949568F822E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF10FD2B-91FD-42F3-A59E-4781A1490AA0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8815A55C-8A39-4324-8517-B75B920BA9F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{627E4D52-71A3-4A42-A5AE-6517AEE0F57E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F055D61D-FE67-43C9-892E-45548673E2BF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A0E62100-F2A8-4CD2-A263-5191ABDA6338}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3EB6CE2-88DD-4903-A329-27A144E794FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA82663B-F1E5-4863-988E-5A67EA33B84C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9BF69BDC-4839-4EE6-B7DE-59A961B8D8FA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CE5F3EA0-30E1-4339-8577-5B882DA16F5E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ED931FB8-9E4F-4696-924E-BA074D1C5ABF}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{A9F62A0E-5960-4D06-B78A-4C6157963B2B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F8379AE6-2E85-4199-9C36-82016D72BDB7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A9C43C4D-697B-470B-8212-2032489D3CA9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B83361C6-72EB-4F88-ACE0-E1A952B0C8A2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE33AAF1-C551-4CF0-8AB3-E733359F16BC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{55CE1539-DDCA-4D62-AB11-3B0BF2CBC46A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDE9C9C7-F323-404B-869C-C1032F288517}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F2B43913-B08F-41DA-AFF5-83429AD4B000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6234,7 +6234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6636CEF-E7FD-4D26-BF34-B238CC3FF9BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E689CD1-4084-4F71-921F-C3B088D8B756}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7453,18 +7453,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{111EBE27-BDDB-40DA-9286-91AB68AC9FF7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A74A0043-CB81-4B9D-9FBD-B1986452AA4D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE304A52-B758-4CF0-971D-FA4743AD4C86}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5C30E5B5-1499-4FFF-9CF2-2496ECC6494F}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{D090676D-3C99-4957-ACF5-E93C1ADBF133}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{843819BE-245F-4A38-8F08-F6B7C9B37BBC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E23CCF8E-BD45-410D-826C-86DDE0B7CCC1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A3E8C031-7FBC-4358-B617-A2B7E0FFB925}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{612222DC-2853-44BC-911F-337204A2CD67}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5B8D5062-5122-466D-868E-7CE26C3EA80D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E9DF272-2EB6-43D1-BB37-D03DE9849E93}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1342FA75-A618-4A6E-8928-C4B3DAE863D7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6E9FCF4-D066-4AD1-8557-96E2A6C44E56}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00CA1E33-673B-4418-A6DE-B4BBA3E368A9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E6834627-8B6B-47E7-BC1D-0F019C95E01A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0F31DE82-3694-465B-A0E8-A64CF1149593}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{791CAFCE-8457-419F-8796-743CBEFA1349}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BB58DEE5-32CE-4698-BFFC-ED41373F0268}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F81B1108-9507-43B7-BF97-349E3558BC35}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3CAE2CEE-0A01-41A2-96E1-84955F8C3EEC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{68A6D301-20CD-4AAF-84CC-6D7EAFD23849}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B44E9B67-DBCC-41B8-B82F-6CE10D2FC58E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B2311E77-C702-42D2-9556-234E21D632EB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7EBDF33-EB72-4D7C-BF25-859D06E3EE1B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7477,7 +7477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A5BAD6-F6BF-45F0-A8DB-FB1F98B00C67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64693886-1F61-44DD-8D2B-2739A9C9C09F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8696,18 +8696,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2245055B-974B-414F-AC5E-D83D50CADAF1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E1D10F8-EC7C-4637-BFBB-E9F440D0A71E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FBE2D43E-A03A-4467-9C50-2EEE7513D443}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D98DADD7-3F83-4818-9FC1-9B9275CB4B8B}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{6033272E-5CE0-4996-9ABD-A21E3233AC7B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B0E08D5E-1C0F-4B2C-8465-C06549E701CF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7E7E568-0F93-493E-B906-8421F711D7AC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3A3CF900-6FC8-488C-AEC5-B63652A16627}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6A76BBCE-89BF-46BD-8A22-DC44DB46F951}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BBB4AAEC-CCB3-43C9-9F1D-6D3B2DC23CCE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E93DC5E8-CA41-40B2-8BFB-96B541DDBA54}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3483D871-A9BA-48C5-89D7-143FD65B7326}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E647ADD5-B716-49DA-8036-D74F02E94B9B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F4ECCC32-2BFA-4212-9AD1-E579904026F9}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7114F036-6590-4737-BA3A-404F9494C3A2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F2DE1DFE-2D15-4211-8865-9FA3D96D0159}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C18724CE-5867-4EAB-9364-E9709668EE50}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{931F9DD9-54DE-49DA-8C72-C47EBFE41E23}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62FE221D-D2BC-4EA3-8DC3-F7A18AA46927}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{114EE1D5-15B9-42CC-9703-960025B6B9DD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{039A0EC4-62D9-4B3D-9A15-03880565D17C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{83C7BF5C-5717-443E-A318-7721F3C05FE0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9571B52A-C8AC-4DD3-A02A-76593437DC44}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB441F39-C7CA-4C58-9451-0FEC2C1993F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8720,7 +8720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C4B00F-F014-45E5-815E-E614B31ECF5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCAD3A2D-A4BA-46C2-A87B-B9254F718FEA}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9939,18 +9939,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9FC49DCB-37B6-409A-9651-C00215C31A3C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC90F77A-9C58-4E86-97E0-FB1FE41D7966}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3D21E7FF-5F0D-4925-86E8-7251A0487084}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C158145B-88C0-4D07-9B47-22CED4C79C31}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{0D6A47DE-2BBF-41F7-8A4F-339B9A0EA407}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{80410E1B-5792-40A7-999E-67DB0DB471E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EE4F815C-F520-4DC1-AB5E-03BBF67DC90E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1AAB020F-61B8-414D-B228-C985911810B1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6DA63CAC-A54F-4635-B689-8BBA5421009F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3109B9A8-31C7-4D95-877A-264BE779E608}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90F8780C-5E92-42E6-B446-634ECF4231AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ADEF6268-1A61-4D20-9C3E-7D55B21A19F6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C2B9AC92-DB23-4739-ACFB-38818849A43E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{42C671C7-4A34-4435-9E26-581CD1F43DF4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EA75FAE2-BAEC-4630-9408-E8E0E30BB3F1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5CC51128-8795-4DFA-B031-F5C65B4197C7}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{8D661769-F746-4978-8594-029F5AEA9616}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F665BE35-5886-418F-9320-2C42E156575C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{334D82EF-D7D9-42F6-BC08-F62129BC9AA2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{101C5998-BFA5-4D2A-BD5B-16BCBE04A737}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{86289C02-ED10-4FAB-A959-0F9A1728E7C3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6FAF02AC-773A-4B91-9996-207095726DDE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DCCBEE49-268C-4234-A1C2-BECF861FCF91}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{80F13FC9-9967-42DA-8F54-7B750DAF5891}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9963,7 +9963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37197F95-8F2C-4B8B-B9B9-7857BAEE7534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C28A81-A457-4A32-BEAF-7417B248D448}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11182,18 +11182,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F87187CE-7CFD-4F26-9BC6-EB246E365C37}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D9DEC5E-A1D7-4C6E-A0E4-833F1E2E1A60}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B57CA36D-AE66-4093-9A5E-74E46E2A646B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{918B95D8-43D2-4BEF-9E70-348B4748EAB3}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{747B71C5-56D8-48B0-BCD4-E2DE12754C2D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E487AEA9-3AE5-48A5-AC9B-D7FA4E131A45}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8B62BD10-9981-4A72-B7B9-C967F602A47F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4805BE87-19F4-48CE-BF3C-6B4A290E1208}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0740FD06-D77A-411A-BB15-BE94B62E4F86}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ACA32A2E-1E4E-4F2A-BDE0-6DAA799BF023}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9A4DD92-DFED-47FC-BD47-90575C242AF6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2A23E3C8-667A-4AE2-83D7-C340EAE5468A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{461842F3-A20F-491A-AA48-EC3E609E71DE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2344A48E-6FE4-4E8C-9C47-86CF5E4994CA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D86BF9A1-A0BA-4B2B-A04E-DDE65B13ED75}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EFF13944-7621-4D1D-ACB5-654E1EBD8CC0}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{34A9AE3D-F374-48EF-9C34-550125D051E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DB85018E-B25A-46A0-8CDC-04D2CE7A615C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD03B6D2-02DF-4821-95B0-19DA14452A19}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C13AA87E-B2B7-4E40-A0E1-66926365AACC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6019B132-D479-419D-8F60-E4A8B8DE2830}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9F3C399-7967-4EA0-BA9F-DD14FD803C4E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F45285DA-5BE3-402A-8D6A-E7AE42409FFD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{450DF925-1DCB-413D-9EFB-2336CD4A2608}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11206,7 +11206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3A21D5-DC31-470F-8A53-B8AE3D8FA1E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A191FD4-9884-4264-98A1-20AA3DD63F8A}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12421,18 +12421,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CBD462C7-5B2B-4B2C-ACAD-DFE828132877}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58995663-F4E8-49C5-8AC4-1854642936BC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{87308AA2-425B-47FF-BCF8-7A5D1572C64B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6522A5AA-693E-43FD-BAC8-1F04EDA9AC76}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C7B05EFA-A027-4CA3-82DA-394193BCDCB6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8A8A4130-058D-412A-B85E-9791B4DD2636}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1FAA9E61-51BF-4F87-B82A-D34FA9907868}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44CEA4A7-62B9-456B-9C4D-86EEB5A50E41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A71CD29A-FC46-473F-8C1B-8306A45779F4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A0315CB3-93BD-4EC0-9DC1-10797D3F09DE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{193C3640-1EAB-4517-9475-8F8A83F23FAA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CAC253DA-34A4-4585-A7F7-7823D96B31F9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{66ABF4B7-1B7A-4C3D-A351-71F44390DBAD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{66D31BFD-0E6B-4865-AF16-701862E58F0E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1E5C4B0F-68CD-44D1-8A29-615948D356FB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{673F2CD6-CC2A-4559-BC28-0DFED8660A75}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{B75D2C9F-2B4E-43EF-8868-95CCD3BC2E26}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4C974ED1-04F1-4C00-AC8F-41D5C87E4A50}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B3621666-BD12-49EF-9329-A1FFFF9ADF3D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2CC7D26-7876-4B1E-86DB-026C615485DA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CDB4E613-DAE5-4539-948D-60A5CF53F73E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D812FA35-4DC9-4A8D-A728-2A2A8F435CB7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90DA8FD7-3D93-4044-9780-FB30358FC025}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A7F3570C-1651-49A2-B906-0FDD96B05E6F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12445,7 +12445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C72AFC-DCA0-404C-B6AB-12E3AEC36CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D02D65B-D1E9-4623-ADB9-4D8FBE2345D5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13660,18 +13660,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3E9B047E-5C8B-4B44-B7EF-62008688168F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FA7F4403-34BE-4F9A-BAED-9F51C309214C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A4A8F2C6-FB3B-4E47-92F4-E0E7847D5B54}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{431D229A-446A-495C-ADD6-58CCD8ECC6AB}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{74134CD0-B081-4C9C-9302-13700E815D7B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{948BF4D9-2A2E-4833-B719-167D8B0246EA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{53B3B806-14A5-41E3-9AEF-26BE3BA1638F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E3FF7A0A-CF0E-47AC-B06D-6E68C892C695}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90B3CC5A-6234-4B01-9E5B-94594D234F6B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C2218FB-151F-45EB-80FA-F20168CF298D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D60E892-3B9F-4EA7-8A5D-EB4B90285789}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D9663334-FFAA-462B-B528-73B5E3D44DE6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A842764F-8879-408A-A102-6FD7CF4580BD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{43ABD1C9-D7D9-4647-8026-3E9CBE5D218E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{103CC315-971D-43B4-A81A-5EDDB2FDC077}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7E38545A-71B3-4680-80AF-DCA712AE8727}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{C123A96E-B986-4047-AD9E-408C76F23ABF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A7D6B93-0E3F-464E-8B26-CEDED3FF3AFF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0534C341-006D-4038-86A9-CDDE4916377A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1F7BEB14-6011-47F4-9789-91C3E12C2677}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99A27D97-A779-4467-81FE-B1F0144C8BB3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F9A3AD4B-46F5-4F97-A117-2FD5D8EFDF77}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6139082D-2D2F-40B1-9A08-7E24CFCA8ED6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{077521DD-CAF4-4C12-B1FF-1F8DA18A4176}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13684,7 +13684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4DED45-AC61-4F57-B905-45C399CD2B0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4587D093-7617-4566-8F93-92F7DCB44BD4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14903,18 +14903,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A561FBB5-2183-49DC-A3FE-6011427AABF9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D6D001DB-66DB-4ED2-B2FD-5257DEBF52C7}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0949D14D-1ABE-4B2A-8991-3006A8B64158}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7AD24536-49D5-4931-BB81-26DB8DE14A04}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{58C0DE12-AB09-4CF3-ACDF-54B4B5395D5B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1CA2CF92-D4B3-48BD-9EF7-1FA95665806D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DC3D1FC-1144-4539-97D3-395E4F142A28}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E1D84FD9-FF97-4075-949F-DA73C65C613E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63E277B5-0045-4DEF-9284-6E40C53D9D53}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{31ED54D1-EFF7-4ACF-8F3A-5663A529E8E9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D7D9C50-DC51-4809-8AAA-03D411825FE9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{868DA0E9-6AA5-4258-B33C-8AE5E0A91E18}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D68EEA56-4862-4E1C-81BA-7647D51989BA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D88B706-43BE-4E23-8140-780D99D80497}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{517D80F5-F2A3-44AE-AC4D-94D3035479B5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{154CE36E-AC14-4C54-8BB1-44D2EFF60870}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{89615178-4938-48EA-A717-FABC56A3D108}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB40D0A0-EBCE-415D-8F4F-892F5AF664A9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82619AB0-40E0-448F-A60E-F673B4C7659B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{309E41F2-DA49-444D-ABE3-016CB3B362F8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{87CD6AFF-5C31-494E-B652-CB6936DCFB66}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A20373C2-A505-4203-AA20-0716BEF24172}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21A59B77-A9A5-4B81-872C-BD73550BBD4E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D9C7D38-4741-439A-8D02-E4421C929B0C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14927,7 +14927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CB593C-8849-4E08-9A42-A055E2417741}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5963D1A4-5A3F-49F3-852C-30474A6E7449}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16142,18 +16142,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AEB39A84-00A7-4EDF-AD58-BB8936B6ECA5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F05CAA34-1422-484C-90FB-F0465976AE55}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E451403D-95F0-49DD-8160-B6F19AA909A9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{15109929-1943-484B-A6B7-5592C701749F}"/>
-    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{74C5D8EF-4607-4CE8-9F44-903AE223BFA7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9598D79C-DA08-4C88-8925-B25F1C1A9709}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3180CA9D-4BC2-496C-81E3-49E7044DCB06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1C930F19-EC18-4CE3-940A-4713D5E6911D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B4CAFA2D-386F-4EFF-8F5B-726FE1CCD2F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{53BA7D63-9ADC-4373-94A0-F427538A910A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4925022D-A303-4AFC-A942-20DFD4875EDD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{68E82229-9434-4F34-B375-DEB8920D16EA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7ADF3590-5B8C-45C5-B828-A6C8DAEB8430}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{446A0D6C-2024-41DC-8B7C-C6F659F15CA0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{52D6F8B0-A8A1-4A4C-9728-668CBA79E9F5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E3C26C98-F1F8-4D3A-9804-D6B17BF2A9A1}"/>
+    <hyperlink ref="D5" location="'MAYIS '!A1" display="MAYIS" xr:uid="{07DCE2BA-4B71-404E-A199-BC65B1527F99}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1136348C-7DC4-4F67-AFAB-18D40DE5EE0D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{800DDF6F-A988-4105-B2DD-A96CE3DD7032}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8714F334-6E75-40AA-B215-B02558BF7DB0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E457EAAF-3650-48C1-B2FD-BAA2FD6C214E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0C14F712-E743-47CC-86D8-833F84A1003A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D981DD04-E8FF-4033-9031-BF55EFB599F1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C14764E3-A619-4DD3-813A-A8030F8AF849}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
